--- a/quan.java/quan-config/excel/道具/武器.xlsx
+++ b/quan.java/quan-config/excel/道具/武器.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\quan.java\config\excel\道具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\quan\quan.java\quan-config\excel\道具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A52B625-5F65-4E07-981C-8A2BA12B7682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +63,6 @@
     <t>List2</t>
   </si>
   <si>
-    <t>注释</t>
-  </si>
-  <si>
     <t>武器1</t>
   </si>
   <si>
@@ -119,26 +115,12 @@
   </si>
   <si>
     <t>2|324</t>
-  </si>
-  <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>itemNum</t>
   </si>
   <si>
     <t>a</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励Set</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -175,18 +157,6 @@
   </si>
   <si>
     <t>UseEffect2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释:类名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释:bbb</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释:aaa</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -197,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1142,11 +1112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1173,13 +1143,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1218,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="V1" t="s">
         <v>12</v>
@@ -1231,103 +1201,109 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>54</v>
+      </c>
+      <c r="N2">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>522</v>
+      </c>
+      <c r="G3">
+        <v>3324</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
+      <c r="I3">
+        <v>12</v>
       </c>
       <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
       <c r="M3">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="N3">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
       </c>
       <c r="P3">
         <v>4</v>
@@ -1339,63 +1315,54 @@
         <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>522</v>
-      </c>
-      <c r="G4">
-        <v>3324</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
       <c r="I4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
       <c r="M4">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="N4">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
       </c>
       <c r="P4">
         <v>4</v>
@@ -1407,78 +1374,19 @@
         <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-      <c r="N5">
-        <v>32</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>11</v>
-      </c>
-      <c r="R5">
-        <v>43</v>
-      </c>
-      <c r="S5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" t="s">
         <v>31</v>
-      </c>
-      <c r="W5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
